--- a/36269_中嶋智也_個人作成用/game/data/item_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/item_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D3F8B-EB64-4EAE-8C65-2FF0D1154931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F845469-B0FF-492D-B369-80AD87C7DD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{92B2AE13-5042-4F56-8AC1-186E69DE65E2}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{92B2AE13-5042-4F56-8AC1-186E69DE65E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9561965-E4BA-46C7-847B-31811235DCB8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -635,18 +635,30 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>400</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/36269_中嶋智也_個人作成用/game/data/item_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/item_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F845469-B0FF-492D-B369-80AD87C7DD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F735451-2312-44F9-8A4E-426953000B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{92B2AE13-5042-4F56-8AC1-186E69DE65E2}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{92B2AE13-5042-4F56-8AC1-186E69DE65E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9561965-E4BA-46C7-847B-31811235DCB8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -653,6 +653,17 @@
       </c>
       <c r="C4" s="1">
         <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
